--- a/Document.xlsx
+++ b/Document.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
   <si>
     <t>S. No</t>
   </si>
@@ -55,6 +55,9 @@
   </si>
   <si>
     <t>For Closing the opened screen</t>
+  </si>
+  <si>
+    <t>All the screen showing full decription</t>
   </si>
 </sst>
 </file>
@@ -119,10 +122,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -417,10 +423,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C14"/>
+  <dimension ref="A1:J14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="F19" sqref="F19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -429,7 +435,7 @@
     <col min="3" max="3" width="58.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:10">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -440,7 +446,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:10">
       <c r="A2" s="2">
         <v>1</v>
       </c>
@@ -451,7 +457,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:3">
+    <row r="3" spans="1:10">
       <c r="A3" s="2">
         <v>2</v>
       </c>
@@ -462,7 +468,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:3">
+    <row r="4" spans="1:10">
       <c r="A4" s="2">
         <v>3</v>
       </c>
@@ -473,7 +479,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:3">
+    <row r="5" spans="1:10">
       <c r="A5" s="2">
         <v>4</v>
       </c>
@@ -483,8 +489,16 @@
       <c r="C5" s="2" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="6" spans="1:3">
+      <c r="E5" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="F5" s="3"/>
+      <c r="G5" s="3"/>
+      <c r="H5" s="3"/>
+      <c r="I5" s="3"/>
+      <c r="J5" s="3"/>
+    </row>
+    <row r="6" spans="1:10">
       <c r="A6" s="2">
         <v>5</v>
       </c>
@@ -494,48 +508,75 @@
       <c r="C6" s="2" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="7" spans="1:3">
+      <c r="E6" s="3"/>
+      <c r="F6" s="3"/>
+      <c r="G6" s="3"/>
+      <c r="H6" s="3"/>
+      <c r="I6" s="3"/>
+      <c r="J6" s="3"/>
+    </row>
+    <row r="7" spans="1:10">
       <c r="A7" s="2"/>
       <c r="B7" s="2"/>
       <c r="C7" s="2"/>
-    </row>
-    <row r="8" spans="1:3">
+      <c r="E7" s="3"/>
+      <c r="F7" s="3"/>
+      <c r="G7" s="3"/>
+      <c r="H7" s="3"/>
+      <c r="I7" s="3"/>
+      <c r="J7" s="3"/>
+    </row>
+    <row r="8" spans="1:10">
       <c r="A8" s="2"/>
       <c r="B8" s="2"/>
       <c r="C8" s="2"/>
-    </row>
-    <row r="9" spans="1:3">
+      <c r="E8" s="3"/>
+      <c r="F8" s="3"/>
+      <c r="G8" s="3"/>
+      <c r="H8" s="3"/>
+      <c r="I8" s="3"/>
+      <c r="J8" s="3"/>
+    </row>
+    <row r="9" spans="1:10">
       <c r="A9" s="2"/>
       <c r="B9" s="2"/>
       <c r="C9" s="2"/>
-    </row>
-    <row r="10" spans="1:3">
+      <c r="E9" s="3"/>
+      <c r="F9" s="3"/>
+      <c r="G9" s="3"/>
+      <c r="H9" s="3"/>
+      <c r="I9" s="3"/>
+      <c r="J9" s="3"/>
+    </row>
+    <row r="10" spans="1:10">
       <c r="A10" s="2"/>
       <c r="B10" s="2"/>
       <c r="C10" s="2"/>
     </row>
-    <row r="11" spans="1:3">
+    <row r="11" spans="1:10">
       <c r="A11" s="2"/>
       <c r="B11" s="2"/>
       <c r="C11" s="2"/>
     </row>
-    <row r="12" spans="1:3">
+    <row r="12" spans="1:10">
       <c r="A12" s="2"/>
       <c r="B12" s="2"/>
       <c r="C12" s="2"/>
     </row>
-    <row r="13" spans="1:3">
+    <row r="13" spans="1:10">
       <c r="A13" s="2"/>
       <c r="B13" s="2"/>
       <c r="C13" s="2"/>
     </row>
-    <row r="14" spans="1:3">
+    <row r="14" spans="1:10">
       <c r="A14" s="2"/>
       <c r="B14" s="2"/>
       <c r="C14" s="2"/>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="E5:J9"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>

--- a/Document.xlsx
+++ b/Document.xlsx
@@ -57,7 +57,7 @@
     <t>For Closing the opened screen</t>
   </si>
   <si>
-    <t>All the screen showing full decription</t>
+    <t>All the screen showing full decriptionaDasdaSDasdaSDas</t>
   </si>
 </sst>
 </file>
@@ -426,7 +426,7 @@
   <dimension ref="A1:J14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F19" sqref="F19"/>
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
